--- a/calc/management/commands/shablon-2.xlsx
+++ b/calc/management/commands/shablon-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U_Rajabov\Desktop\projects\back_project\calc\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003D8475-34CF-4454-B307-621479BC8CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A568FDE-CA7D-43C8-9253-7734D7E9EA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F2B892B4-3CE4-4B65-946B-BD7E460FE89C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Имя_сотрудника_или_кандидата</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>G'opirov Qobiljon Xayitmaxamad o'g'li</t>
+  </si>
+  <si>
+    <t>Gopirov_Q_2489</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719F74CB-EC2E-4AA3-9E93-49A2BC79402A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -561,6 +567,20 @@
         <v>12345678912349</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>98765432112345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/calc/management/commands/shablon-2.xlsx
+++ b/calc/management/commands/shablon-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U_Rajabov\Desktop\projects\back_project\calc\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A568FDE-CA7D-43C8-9253-7734D7E9EA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642715FD-2210-466A-B682-61EDB891422E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F2B892B4-3CE4-4B65-946B-BD7E460FE89C}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/calc/management/commands/shablon-2.xlsx
+++ b/calc/management/commands/shablon-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U_Rajabov\Desktop\projects\back_project\calc\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642715FD-2210-466A-B682-61EDB891422E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22A61B7-ECA4-4A00-BDD3-DF225A14CC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F2B892B4-3CE4-4B65-946B-BD7E460FE89C}"/>
   </bookViews>
@@ -457,9 +457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719F74CB-EC2E-4AA3-9E93-49A2BC79402A}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/calc/management/commands/shablon-2.xlsx
+++ b/calc/management/commands/shablon-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U_Rajabov\Desktop\projects\back_project\calc\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22A61B7-ECA4-4A00-BDD3-DF225A14CC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D44770B-65CB-4582-9A9E-7BD24FB275B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{F2B892B4-3CE4-4B65-946B-BD7E460FE89C}"/>
   </bookViews>
@@ -94,7 +94,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,17 +144,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,12 +472,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719F74CB-EC2E-4AA3-9E93-49A2BC79402A}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41.08984375" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="5" customWidth="1"/>
     <col min="3" max="3" width="20.81640625" customWidth="1"/>
     <col min="4" max="4" width="21.54296875" customWidth="1"/>
   </cols>
@@ -471,7 +488,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -485,7 +502,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>18</v>
       </c>
       <c r="C2" t="s">
@@ -499,7 +516,7 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>489</v>
       </c>
       <c r="C3" t="s">
@@ -513,7 +530,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>1192</v>
       </c>
       <c r="C4" t="s">
@@ -527,7 +544,7 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>1315</v>
       </c>
       <c r="C5" t="s">
@@ -541,7 +558,7 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>1421</v>
       </c>
       <c r="C6" t="s">
@@ -555,7 +572,7 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>1975</v>
       </c>
       <c r="C7" t="s">
@@ -569,7 +586,7 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
       <c r="C8" t="s">
